--- a/data/trans_bre/P25_N_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25_N_R2-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>17,24</t>
+          <t>27,3</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>14,83</t>
+          <t>30,73</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>29,42</t>
+          <t>26,55</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>32,1%</t>
+          <t>35,01</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>32,65%</t>
+          <t>60,3%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>63,06%</t>
+          <t>76,42%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>62,82%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>78,03%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,66; 33,78</t>
+          <t>6,47; 55,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 32,03</t>
+          <t>10,79; 55,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,86; 47,73</t>
+          <t>3,42; 55,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,74; 82,62</t>
+          <t>10,34; 66,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 92,44</t>
+          <t>9,66; 238,29</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>24,7; 150,9</t>
+          <t>18,27; 267,58</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>6,07; 262,09</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>14,73; 360,54</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>23,83</t>
+          <t>19,8</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>20,83</t>
+          <t>18,97</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>25,3</t>
+          <t>22,6</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>93,13%</t>
+          <t>18,8</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>82,85%</t>
+          <t>62,49%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>106,44%</t>
+          <t>66,57%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>87,28%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>53,2%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,78; 31,4</t>
+          <t>8,56; 30,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,69; 28,98</t>
+          <t>8,33; 29,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,67; 33,56</t>
+          <t>10,58; 31,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>51,84; 144,25</t>
+          <t>7,76; 30,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>38,54; 142,85</t>
+          <t>22,53; 119,82</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>58,86; 170,98</t>
+          <t>25,03; 130,68</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>34,44; 160,44</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>18,47; 107,72</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,68</t>
+          <t>-0,96</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,99</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,79</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>11,34%</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>36,59%</t>
+          <t>-2,74%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>15,86%</t>
+          <t>5,83%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-2,87%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>3,45%</t>
         </is>
       </c>
     </row>
@@ -802,39 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 12,29</t>
+          <t>-12,9; 11,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,78; 17,76</t>
+          <t>-8,73; 13,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 13,51</t>
+          <t>-12,55; 10,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-15,35; 45,87</t>
+          <t>-10,87; 14,65</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,06; 79,6</t>
+          <t>-31,33; 41,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-12,09; 51,67</t>
+          <t>-23,82; 55,97</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-30,53; 42,72</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-23,13; 48,65</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15,91</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>16,65</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>20,61</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>48,57%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>57,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>70,2%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,160 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,02; 21,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,21; 22,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,61; 26,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>22,71; 74,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>34,74; 85,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>43,93; 99,95</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>12,28</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>13,63</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>14,24</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>15,92</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>35,24%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>44,06%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>46,37%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>41,93%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>4,41; 19,84</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>6,15; 20,77</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>6,55; 21,52</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>7,22; 25,56</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>11,06; 66,87</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>18,54; 80,74</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>19,1; 84,33</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>16,37; 81,24</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P25_N_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25_N_R2-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>27,3</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>30,73</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>26,55</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>35,01</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>60,3%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>76,42%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>62,82%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>78,03%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>25.31767788201241</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>31.76329403589001</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>26.88692851661121</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>35.9606265606475</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.5302646493184731</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.7970325380014596</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.6462282357519208</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.8321924810323874</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>6,47; 55,22</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>10,79; 55,99</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>3,42; 55,0</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>10,34; 66,67</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>9,66; 238,29</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>18,27; 267,58</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>6,07; 262,09</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>14,73; 360,54</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>4.140144785392795</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>12.59669555846163</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>3.838722133521106</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>10.36655129730836</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>0.06628223899047099</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>0.2197706679862056</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0.06988199164371472</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.1575600184137131</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>50.93852274214471</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>55.80960956033182</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>53.44416244517585</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>66.2279280218798</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>1.892345795342853</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>2.53702859165264</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>2.325530447038342</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>3.686737976272676</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>19,8</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>18,97</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>22,6</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>18,8</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>62,49%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>66,57%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>87,28%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>53,2%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>8,56; 30,32</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>8,33; 29,69</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>10,58; 31,98</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>7,76; 30,88</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>22,53; 119,82</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>25,03; 130,68</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>34,44; 160,44</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>18,47; 107,72</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>21.80897643229782</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>18.50309059448648</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>22.06126572200127</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>19.31284235488856</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.7059944342419474</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.629990072959365</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.841448772872603</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.5568651450348161</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-0,96</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,79</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,94</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>1,32</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-2,74%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>5,83%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-2,87%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>3,45%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>10.91019616545071</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>7.606618766953168</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>10.54420062231624</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>8.646328500411013</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>0.2786216393547134</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.1861112501864405</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>0.3212120142259574</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.2131188939025387</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-12,9; 11,55</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-8,73; 13,4</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-12,55; 10,99</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-10,87; 14,65</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-31,33; 41,89</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-23,82; 55,97</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-30,53; 42,72</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-23,13; 48,65</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>32.42905435053407</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>29.51694712927739</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>32.05349579779918</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>31.46204727858658</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>1.314274786268971</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>1.251049309782534</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>1.544291882347187</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.10850527321673</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,212 +827,211 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>0.4199344321865695</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>1.612214578495624</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-1.230027927494776</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>1.830025906799176</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.01254603907865794</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.05211008082828413</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.03774642561177</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.04881319294344447</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-12.92987924132668</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-9.342610266782868</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-13.1024685949452</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-9.959616849519284</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.2976562389801906</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.2507662121570868</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.3260486376450558</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.2194983990226067</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>12.9408884241411</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>13.35478177126356</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>11.06568685330043</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>14.86142427269218</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.5341727025615739</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.5553226843126311</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.434807619037158</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.5062546529776815</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>12,28</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>13,63</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>14,24</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>15,92</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>35,24%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>44,06%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>46,37%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>41,93%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>4,41; 19,84</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>6,15; 20,77</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>6,55; 21,52</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>7,22; 25,56</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>11,06; 66,87</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>18,54; 80,74</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>19,1; 84,33</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>16,37; 81,24</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>13.58478624008933</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>13.78128908123994</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>14.30996511861609</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>16.66416509085542</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.3968187422040201</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.4399510600089472</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.4682049561574954</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.4501131423286141</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>4.974906384132233</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>6.371267366523988</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>6.74288025930868</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>7.985057444435142</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>0.131770762070814</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.1750546436384919</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.1907124892555547</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.1843057369113595</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>21.05042170269998</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>21.03441789232544</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>21.49548904952743</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>25.79090012020487</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.7101830442249745</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.7946547137261525</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.8423561484750034</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.8226722450790895</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
